--- a/data/unchecked/manual_collect/canada/CanadaCaseStatistics20200215.xlsx
+++ b/data/unchecked/manual_collect/canada/CanadaCaseStatistics20200215.xlsx
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9187" uniqueCount="3295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9186" uniqueCount="3295">
   <si>
     <t>统计级别</t>
   </si>
@@ -10723,7 +10723,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -10733,8 +10733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -10911,9 +10911,7 @@
       <c r="E2" s="12" t="s">
         <v>3286</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
       <c r="I2" s="12">
@@ -10926,7 +10924,9 @@
         <v>8</v>
       </c>
       <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
+      <c r="O2" s="12">
+        <v>1</v>
+      </c>
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="13" t="s">
